--- a/project/CV/CV_5.xlsx
+++ b/project/CV/CV_5.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,586 +498,2185 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>beaverhead</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1219093</v>
+        <v>81564</v>
       </c>
       <c r="D2" t="n">
-        <v>44876</v>
+        <v>665</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>4001</v>
+        <v>30001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.055</v>
+        <v>0.165</v>
       </c>
       <c r="H2" t="n">
-        <v>0.063</v>
+        <v>0.127</v>
       </c>
       <c r="I2" t="n">
-        <v>0.031</v>
+        <v>0.102</v>
       </c>
       <c r="J2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="K2" t="n">
-        <v>0.701</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cochise</t>
+          <t>big horn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>894417</v>
+        <v>286682</v>
       </c>
       <c r="D3" t="n">
-        <v>21188</v>
+        <v>8105</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>4003</v>
+        <v>30003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.053</v>
+        <v>0.136</v>
       </c>
       <c r="H3" t="n">
-        <v>0.025</v>
+        <v>0.196</v>
       </c>
       <c r="I3" t="n">
         <v>0.147</v>
       </c>
       <c r="J3" t="n">
-        <v>0.194</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
-        <v>0.581</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>coconino</t>
+          <t>blaine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1601960</v>
+        <v>65939</v>
       </c>
       <c r="D4" t="n">
-        <v>42551</v>
+        <v>2077</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>4005</v>
+        <v>30005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.039</v>
+        <v>0.287</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="J4" t="n">
-        <v>0.11</v>
+        <v>0.252</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7020000000000001</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gila</t>
+          <t>broadwater</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>567563</v>
+        <v>29841</v>
       </c>
       <c r="D5" t="n">
-        <v>18796</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>4007</v>
+        <v>30007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.073</v>
+        <v>0.165</v>
       </c>
       <c r="H5" t="n">
-        <v>0.014</v>
+        <v>0.098</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03</v>
+        <v>0.099</v>
       </c>
       <c r="J5" t="n">
-        <v>0.336</v>
+        <v>0.199</v>
       </c>
       <c r="K5" t="n">
-        <v>0.547</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>graham</t>
+          <t>carbon</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>413803</v>
+        <v>78933</v>
       </c>
       <c r="D6" t="n">
-        <v>7205</v>
+        <v>712</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>4009</v>
+        <v>30009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.095</v>
+        <v>0.14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.067</v>
+        <v>0.169</v>
       </c>
       <c r="I6" t="n">
-        <v>0.237</v>
+        <v>0.163</v>
       </c>
       <c r="J6" t="n">
-        <v>0.049</v>
+        <v>0.26</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5529999999999999</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>greenlee</t>
+          <t>carter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43325</v>
+        <v>13817</v>
       </c>
       <c r="D7" t="n">
-        <v>629</v>
+        <v>411</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>4011</v>
+        <v>30011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.111</v>
+        <v>0.123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="I7" t="n">
-        <v>0.167</v>
+        <v>0.127</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.212</v>
       </c>
       <c r="K7" t="n">
-        <v>0.544</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>la paz</t>
+          <t>cascade</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>214461</v>
+        <v>670750</v>
       </c>
       <c r="D8" t="n">
-        <v>5266</v>
+        <v>10222</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>4012</v>
+        <v>30013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.031</v>
+        <v>0.17</v>
       </c>
       <c r="H8" t="n">
-        <v>0.064</v>
+        <v>0.143</v>
       </c>
       <c r="I8" t="n">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="J8" t="n">
-        <v>0.173</v>
+        <v>0.145</v>
       </c>
       <c r="K8" t="n">
-        <v>0.57</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maricopa</t>
+          <t>chouteau</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48682467</v>
+        <v>37321</v>
       </c>
       <c r="D9" t="n">
-        <v>900337</v>
+        <v>342</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>4013</v>
+        <v>30015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.023</v>
+        <v>0.196</v>
       </c>
       <c r="H9" t="n">
-        <v>0.025</v>
+        <v>0.135</v>
       </c>
       <c r="I9" t="n">
-        <v>0.059</v>
+        <v>0.171</v>
       </c>
       <c r="J9" t="n">
-        <v>0.158</v>
+        <v>0.152</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7340000000000001</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mohave</t>
+          <t>custer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1634516</v>
+        <v>102013</v>
       </c>
       <c r="D10" t="n">
-        <v>62351</v>
+        <v>1137</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>4015</v>
+        <v>30017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.051</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.096</v>
+        <v>0.261</v>
       </c>
       <c r="I10" t="n">
-        <v>0.104</v>
+        <v>0.144</v>
       </c>
       <c r="J10" t="n">
-        <v>0.164</v>
+        <v>0.28</v>
       </c>
       <c r="K10" t="n">
-        <v>0.585</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>navajo</t>
+          <t>daniels</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1909698</v>
+        <v>14600</v>
       </c>
       <c r="D11" t="n">
-        <v>64201</v>
+        <v>502</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>4017</v>
+        <v>30019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.091</v>
+        <v>0.172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.108</v>
+        <v>0.244</v>
       </c>
       <c r="I11" t="n">
-        <v>0.059</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.139</v>
+        <v>0.269</v>
       </c>
       <c r="K11" t="n">
-        <v>0.602</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pima</t>
+          <t>dawson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9417722</v>
+        <v>90265</v>
       </c>
       <c r="D12" t="n">
-        <v>190651</v>
+        <v>2046</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>4019</v>
+        <v>30021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.023</v>
+        <v>0.139</v>
       </c>
       <c r="H12" t="n">
-        <v>0.024</v>
+        <v>0.249</v>
       </c>
       <c r="I12" t="n">
-        <v>0.073</v>
+        <v>0.176</v>
       </c>
       <c r="J12" t="n">
-        <v>0.121</v>
+        <v>0.274</v>
       </c>
       <c r="K12" t="n">
-        <v>0.759</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pinal</t>
+          <t>deer lodge</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3955096</v>
+        <v>96513</v>
       </c>
       <c r="D13" t="n">
-        <v>62978</v>
+        <v>989</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>4021</v>
+        <v>30023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.033</v>
+        <v>0.141</v>
       </c>
       <c r="H13" t="n">
-        <v>0.055</v>
+        <v>0.173</v>
       </c>
       <c r="I13" t="n">
-        <v>0.096</v>
+        <v>0.064</v>
       </c>
       <c r="J13" t="n">
-        <v>0.148</v>
+        <v>0.133</v>
       </c>
       <c r="K13" t="n">
-        <v>0.667</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>santa cruz</t>
+          <t>fallon</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>928383</v>
+        <v>26074</v>
       </c>
       <c r="D14" t="n">
-        <v>17408</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>4023</v>
+        <v>30025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.028</v>
+        <v>0.118</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002</v>
+        <v>0.199</v>
       </c>
       <c r="I14" t="n">
-        <v>0.058</v>
+        <v>0.146</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.296</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8370000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>yavapai</t>
+          <t>fergus</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1323169</v>
+        <v>84681</v>
       </c>
       <c r="D15" t="n">
-        <v>31241</v>
+        <v>1168</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>4025</v>
+        <v>30027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.031</v>
+        <v>0.284</v>
       </c>
       <c r="H15" t="n">
-        <v>0.073</v>
+        <v>0.111</v>
       </c>
       <c r="I15" t="n">
-        <v>0.081</v>
+        <v>0.157</v>
       </c>
       <c r="J15" t="n">
-        <v>0.176</v>
+        <v>0.187</v>
       </c>
       <c r="K15" t="n">
-        <v>0.639</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>yuma</t>
+          <t>flathead</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>arizona</t>
+          <t>montana</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4156873</v>
+        <v>939420</v>
       </c>
       <c r="D16" t="n">
-        <v>90095</v>
+        <v>6541</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>4027</v>
+        <v>30029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008</v>
+        <v>0.076</v>
       </c>
       <c r="H16" t="n">
-        <v>0.013</v>
+        <v>0.167</v>
       </c>
       <c r="I16" t="n">
-        <v>0.046</v>
+        <v>0.159</v>
       </c>
       <c r="J16" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>gallatin</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1071164</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3709</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30031</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>garfield</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8401</v>
+      </c>
+      <c r="D18" t="n">
+        <v>171</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30033</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>glacier</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>165466</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30035</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>golden valley</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4541</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30037</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>granite</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>18186</v>
+      </c>
+      <c r="D21" t="n">
+        <v>151</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30039</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hill</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>178964</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3707</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30041</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>75814</v>
+      </c>
+      <c r="D23" t="n">
+        <v>327</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30043</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>judith basin</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7495</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30045</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lake</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>168574</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1782</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30047</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>lewis and clark</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>457424</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3649</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30049</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>liberty</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10578</v>
+      </c>
+      <c r="D27" t="n">
+        <v>99</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F27" t="n">
+        <v>30051</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lincoln</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>115723</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1284</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30053</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>madison</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>61752</v>
+      </c>
+      <c r="D29" t="n">
+        <v>565</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F29" t="n">
+        <v>30057</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mccone</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15109</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F30" t="n">
+        <v>30055</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>meagher</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13752</v>
+      </c>
+      <c r="D31" t="n">
+        <v>815</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30059</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mineral</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>14053</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30061</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>missoula</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>684955</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5957</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F33" t="n">
+        <v>30063</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.3720000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>musselshell</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>28329</v>
+      </c>
+      <c r="D34" t="n">
+        <v>645</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30065</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>91929</v>
+      </c>
+      <c r="D35" t="n">
+        <v>452</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F35" t="n">
+        <v>30067</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>petroleum</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D36" t="n">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30069</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>phillips</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>48431</v>
+      </c>
+      <c r="D37" t="n">
+        <v>989</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30071</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>pondera</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>41638</v>
+      </c>
+      <c r="D38" t="n">
+        <v>302</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30073</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>powder river</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>11279</v>
+      </c>
+      <c r="D39" t="n">
+        <v>608</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F39" t="n">
+        <v>30075</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>powell</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>74342</v>
+      </c>
+      <c r="D40" t="n">
+        <v>430</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>30077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>prairie</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>11631</v>
+      </c>
+      <c r="D41" t="n">
+        <v>146</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>30079</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ravalli</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>209051</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2185</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>30081</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>richland</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>89945</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1222</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30083</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2160000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>roosevelt</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>165753</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5088</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30085</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rosebud</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>143993</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3991</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sanders</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>43246</v>
+      </c>
+      <c r="D46" t="n">
+        <v>508</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>30089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sheridan</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>33935</v>
+      </c>
+      <c r="D47" t="n">
+        <v>351</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>silver bow</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>289656</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4178</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>30093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>stillwater</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>59538</v>
+      </c>
+      <c r="D49" t="n">
+        <v>984</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>30095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sweet grass</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>31970</v>
+      </c>
+      <c r="D50" t="n">
+        <v>633</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teton</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>31725</v>
+      </c>
+      <c r="D51" t="n">
+        <v>374</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>30099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>toole</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>80561</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>treasure</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4735</v>
+      </c>
+      <c r="D53" t="n">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>30103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>valley</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>74703</v>
+      </c>
+      <c r="D54" t="n">
+        <v>825</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>30105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>wheatland</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>14973</v>
+      </c>
+      <c r="D55" t="n">
+        <v>592</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>30107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>wibaux</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>11355</v>
+      </c>
+      <c r="D56" t="n">
+        <v>352</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30109</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>yellowstone</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>montana</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1614493</v>
+      </c>
+      <c r="D57" t="n">
+        <v>21193</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30111</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.129</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.804</v>
+      <c r="H57" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.265</v>
       </c>
     </row>
   </sheetData>
